--- a/GraficoAlgoritmos.xlsx
+++ b/GraficoAlgoritmos.xlsx
@@ -273,7 +273,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -691,11 +691,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45651600"/>
-        <c:axId val="17867953"/>
+        <c:axId val="11768777"/>
+        <c:axId val="95128555"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45651600"/>
+        <c:axId val="11768777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,14 +751,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17867953"/>
+        <c:crossAx val="95128555"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17867953"/>
+        <c:axId val="95128555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +823,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45651600"/>
+        <c:crossAx val="11768777"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -914,7 +914,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/GraficoAlgoritmos.xlsx
+++ b/GraficoAlgoritmos.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Branch and Bound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brute Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetic Algorithm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t xml:space="preserve">3 cidades</t>
   </si>
@@ -48,6 +36,18 @@
   <si>
     <t xml:space="preserve">15 cidades</t>
   </si>
+  <si>
+    <t xml:space="preserve">Branch and Bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brute Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic Algorithm</t>
+  </si>
 </sst>
 </file>
 
@@ -55,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,53 +81,24 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF04E4D"/>
-        <bgColor rgb="FFFF420E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF62A73B"/>
-        <bgColor rgb="FF579D1C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,41 +135,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -217,25 +164,25 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFF04E4D"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -252,16 +199,16 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF62A73B"/>
+      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -273,7 +220,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -285,15 +232,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Quantidade de cidades x Tempo ms</a:t>
+              <a:t>TSP - Branch, Brute, Dynamic and Generic</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -316,7 +269,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$2</c:f>
+              <c:f>Planilha1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -327,23 +280,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="4472c4"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:srgbClr val="4472c4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -357,7 +304,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Planilha1!$B$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -380,24 +327,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Planilha1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.0012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>0.0156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>0.957867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>86.773467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>4617.2788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,7 +356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$2</c:f>
+              <c:f>Planilha1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -420,23 +367,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="ed7d31"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="ed7d31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -450,7 +391,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Planilha1!$B$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -473,24 +414,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>Planilha1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0.000933</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0.0136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>4.277867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3999.563333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>10388018.11388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,7 +443,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2:$D$2</c:f>
+              <c:f>Planilha1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,23 +454,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="a5a5a5"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="a5a5a5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -543,7 +478,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Planilha1!$B$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -566,24 +501,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:f>Planilha1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>0.003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>0.0272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.290133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.915867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>37.436733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,7 +530,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2:$E$2</c:f>
+              <c:f>Planilha1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -606,23 +541,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="579d1c"/>
+              <a:srgbClr val="ffc000"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="ffc000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -636,7 +565,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Planilha1!$B$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -659,24 +588,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>Planilha1!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.008267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>0.108733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.5782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>1.833867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5.592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,54 +619,27 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="11768777"/>
-        <c:axId val="95128555"/>
+        <c:marker val="0"/>
+        <c:axId val="12988018"/>
+        <c:axId val="36215965"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11768777"/>
+        <c:axId val="12988018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Quantidade de vias</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="d9d9d9"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -745,20 +647,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95128555"/>
+        <c:crossAx val="36215965"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95128555"/>
+        <c:axId val="36215965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,50 +671,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="d9d9d9"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>tempo ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
+          <a:ln w="6480">
+            <a:noFill/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -817,27 +693,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11768777"/>
+        <c:crossAx val="12988018"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -850,8 +727,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -864,8 +744,818 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>TSP - Branch, Dynamic and Generic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branch and Bound</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$20:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.957867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.773467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4617.2788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$20:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.290133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.915867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.436733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="a5a5a5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$20:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.008267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.833867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="44731707"/>
+        <c:axId val="86756578"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44731707"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86756578"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86756578"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44731707"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>TSP - Dynamic and Generic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$39:$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$40:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.290133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.915867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.436733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$39:$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$41:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.008267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.833867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="12697033"/>
+        <c:axId val="81393327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="12697033"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81393327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81393327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12697033"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -875,29 +1565,89 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>692280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="0" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="59760" y="1461960"/>
-        <a:ext cx="7388280" cy="3242520"/>
+        <a:off x="7277040" y="0"/>
+        <a:ext cx="7225920" cy="3447720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7277040" y="3543480"/>
+        <a:ext cx="7149600" cy="3438000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257040</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7267680" y="7219800"/>
+        <a:ext cx="7149600" cy="3438000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -911,199 +1661,267 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.957867</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>86.773467</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>4617.2788</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.000933</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4.277867</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>3999.563333</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>10388018.11388</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.290133</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2.915867</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>37.436733</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.008267</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.108733</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.5782</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1.833867</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>5.592</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="n">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.957867</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>86.773467</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>4617.2788</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.290133</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>2.915867</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>37.436733</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0.008267</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0.108733</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.5782</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1.833867</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>5.592</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>98</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.290133</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>2.915867</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>37.436733</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0.008267</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0.108733</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.5782</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>1.833867</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>5.592</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>53</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/GraficoAlgoritmos.xlsx
+++ b/GraficoAlgoritmos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t xml:space="preserve">3 cidades</t>
   </si>
@@ -46,6 +46,21 @@
     <t xml:space="preserve">Dynamic Programming</t>
   </si>
   <si>
+    <t xml:space="preserve">3 Cidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Cidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Cidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Cidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Cidades</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genetic Algorithm</t>
   </si>
 </sst>
@@ -57,7 +72,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,6 +105,21 @@
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -150,12 +180,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -173,7 +203,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -195,7 +225,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -207,7 +237,7 @@
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -232,7 +262,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -240,7 +270,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -294,12 +324,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -381,12 +423,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -468,12 +522,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -555,12 +621,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -620,11 +698,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="12988018"/>
-        <c:axId val="36215965"/>
+        <c:axId val="74554417"/>
+        <c:axId val="62323524"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="12988018"/>
+        <c:axId val="74554417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +725,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -656,14 +734,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36215965"/>
+        <c:crossAx val="62323524"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36215965"/>
+        <c:axId val="62323524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +771,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -702,7 +780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12988018"/>
+        <c:crossAx val="74554417"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -727,7 +805,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -766,7 +844,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -774,7 +852,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -828,12 +906,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -915,12 +1005,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1002,12 +1104,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1067,11 +1181,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="44731707"/>
-        <c:axId val="86756578"/>
+        <c:axId val="66437706"/>
+        <c:axId val="98768346"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44731707"/>
+        <c:axId val="66437706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1208,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1103,14 +1217,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86756578"/>
+        <c:crossAx val="98768346"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86756578"/>
+        <c:axId val="98768346"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1254,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1149,7 +1263,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44731707"/>
+        <c:crossAx val="66437706"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1174,7 +1288,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -1213,7 +1327,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1221,7 +1335,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1275,12 +1389,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1362,12 +1488,24 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1427,11 +1565,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="12697033"/>
-        <c:axId val="81393327"/>
+        <c:axId val="56259643"/>
+        <c:axId val="60416499"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="12697033"/>
+        <c:axId val="56259643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1592,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1463,14 +1601,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81393327"/>
+        <c:crossAx val="60416499"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81393327"/>
+        <c:axId val="60416499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1638,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1509,7 +1647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12697033"/>
+        <c:crossAx val="56259643"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1534,7 +1672,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -1561,12 +1699,359 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="pt-BR" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>TSP - Brute Force</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="11"/>
+      <c:rotY val="25"/>
+      <c:rAngAx val="1"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="cccccc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$P$5:$T$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 Cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$P$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.000933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.277867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3999.563333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10388018.11388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="27696943"/>
+        <c:axId val="11065638"/>
+        <c:axId val="61869620"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="27696943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11065638"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11065638"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27696943"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="61869620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11065638"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1574,7 +2059,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>342720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1582,8 +2067,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7277040" y="0"/>
-        <a:ext cx="7225920" cy="3447720"/>
+        <a:off x="5820480" y="0"/>
+        <a:ext cx="5756400" cy="3447360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1596,9 +2081,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -1612,8 +2097,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7277040" y="3543480"/>
-        <a:ext cx="7149600" cy="3438000"/>
+        <a:off x="5820480" y="3528360"/>
+        <a:ext cx="5680080" cy="3437640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1626,9 +2111,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
+      <xdr:colOff>219600</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -1642,12 +2127,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7267680" y="7219800"/>
-        <a:ext cx="7149600" cy="3438000"/>
+        <a:off x="5811120" y="7204680"/>
+        <a:ext cx="5680080" cy="3437640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>230400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12290760" y="1632960"/>
+        <a:ext cx="5756040" cy="3242160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1661,10 +2176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F41"/>
+  <dimension ref="A2:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1674,7 +2189,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="10.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,10 +2275,25 @@
       <c r="F5" s="2" t="n">
         <v>37.436733</v>
       </c>
+      <c r="P5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.008267</v>
@@ -1773,6 +2309,24 @@
       </c>
       <c r="F6" s="2" t="n">
         <v>5.592</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0.000933</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>4.277867</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>3999.563333</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>10388018.11388</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,7 +2396,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>0.008267</v>
@@ -1900,7 +2454,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>0.008267</v>

--- a/GraficoAlgoritmos.xlsx
+++ b/GraficoAlgoritmos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t xml:space="preserve">3 cidades</t>
   </si>
@@ -210,7 +210,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6D6D"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -698,11 +698,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="74554417"/>
-        <c:axId val="62323524"/>
+        <c:axId val="39380092"/>
+        <c:axId val="62657167"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74554417"/>
+        <c:axId val="39380092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,14 +734,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62323524"/>
+        <c:crossAx val="62657167"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62323524"/>
+        <c:axId val="62657167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74554417"/>
+        <c:crossAx val="39380092"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1181,11 +1181,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="66437706"/>
-        <c:axId val="98768346"/>
+        <c:axId val="83626783"/>
+        <c:axId val="93193412"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66437706"/>
+        <c:axId val="83626783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,14 +1217,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98768346"/>
+        <c:crossAx val="93193412"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98768346"/>
+        <c:axId val="93193412"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1263,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66437706"/>
+        <c:crossAx val="83626783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1565,11 +1565,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="56259643"/>
-        <c:axId val="60416499"/>
+        <c:axId val="20635905"/>
+        <c:axId val="69431037"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56259643"/>
+        <c:axId val="20635905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,14 +1601,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60416499"/>
+        <c:crossAx val="69431037"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60416499"/>
+        <c:axId val="69431037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56259643"/>
+        <c:crossAx val="20635905"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1793,11 +1793,14 @@
               <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="ff6d6d"/>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1810,7 +1813,7 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1867,12 +1870,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="27696943"/>
-        <c:axId val="11065638"/>
-        <c:axId val="61869620"/>
+        <c:axId val="11804278"/>
+        <c:axId val="50871321"/>
+        <c:axId val="99859197"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="27696943"/>
+        <c:axId val="11804278"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,14 +1903,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11065638"/>
+        <c:crossAx val="50871321"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11065638"/>
+        <c:axId val="50871321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1953,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1972,11 +1975,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27696943"/>
+        <c:crossAx val="11804278"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="61869620"/>
+        <c:axId val="99859197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,15 +2007,52 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11065638"/>
+        <c:crossAx val="50871321"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="pt-BR" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>TSP - Branch and Bound</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2020,18 +2060,749 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="11"/>
+      <c:rotY val="25"/>
+      <c:rAngAx val="1"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="cccccc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$O$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branch and Bound</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$P$30:$T$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 Cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$P$31:$T$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.957867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.773467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4617.2788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="76718994"/>
+        <c:axId val="32857785"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="76718994"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32857785"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="32857785"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76718994"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="pt-BR" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>TSP - Dynamic Programming</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="11"/>
+      <c:rotY val="25"/>
+      <c:rAngAx val="1"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="cccccc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$O$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$P$54:$T$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 Cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$P$55:$T$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.290133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.915867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.436733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="22364501"/>
+        <c:axId val="43873563"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="22364501"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43873563"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43873563"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22364501"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="pt-BR" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>TSP - Genetic Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="11"/>
+      <c:rotY val="25"/>
+      <c:rAngAx val="1"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="cccccc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$60:$K$60</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 Cidades</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 Cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$61:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.008267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.833867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="749289"/>
+        <c:axId val="54468638"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="749289"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54468638"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54468638"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749289"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -2051,7 +2822,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>229320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2059,7 +2830,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>342720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2067,8 +2838,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5820480" y="0"/>
-        <a:ext cx="5756400" cy="3447360"/>
+        <a:off x="5820840" y="0"/>
+        <a:ext cx="5756040" cy="3447000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2081,15 +2852,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>229320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2097,8 +2868,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5820480" y="3528360"/>
-        <a:ext cx="5680080" cy="3437640"/>
+        <a:off x="5820840" y="3528720"/>
+        <a:ext cx="5679720" cy="3437280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2111,15 +2882,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219600</xdr:colOff>
+      <xdr:colOff>219960</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>171720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2127,8 +2898,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5811120" y="7204680"/>
-        <a:ext cx="5680080" cy="3437640"/>
+        <a:off x="5811480" y="7174440"/>
+        <a:ext cx="5679720" cy="3437280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2141,15 +2912,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>230400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:colOff>255600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:colOff>225720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2157,12 +2928,102 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12290760" y="1632960"/>
-        <a:ext cx="5756040" cy="3242160"/>
+        <a:off x="12315960" y="1752120"/>
+        <a:ext cx="5755680" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12405240" y="6150240"/>
+        <a:ext cx="5764680" cy="3242160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>726840</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>481320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11961000" y="10715400"/>
+        <a:ext cx="5764320" cy="3242160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565920</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>687600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>39960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4505400" y="11943360"/>
+        <a:ext cx="5764320" cy="3229920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2176,10 +3037,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T41"/>
+  <dimension ref="A2:T61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5:T6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W69" activeCellId="0" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2414,6 +3275,43 @@
         <v>5.592</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>0.957867</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>86.773467</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <v>4617.2788</v>
+      </c>
+    </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
@@ -2469,6 +3367,80 @@
         <v>1.833867</v>
       </c>
       <c r="F41" s="2" t="n">
+        <v>5.592</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="T54" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>0.290133</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>2.915867</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>37.436733</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>0.008267</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>0.108733</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0.5782</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>1.833867</v>
+      </c>
+      <c r="K61" s="2" t="n">
         <v>5.592</v>
       </c>
     </row>
